--- a/App_Templates/MICN_Template.xlsx
+++ b/App_Templates/MICN_Template.xlsx
@@ -739,6 +739,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -765,38 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1165,7 +1165,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1194,13 +1194,13 @@
     <row r="2" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="46"/>
       <c r="B2" s="47"/>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:7" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="48"/>
@@ -1209,10 +1209,10 @@
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="61"/>
+      <c r="F3" s="71"/>
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1222,10 +1222,10 @@
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="63"/>
+      <c r="F4" s="73"/>
       <c r="G4" s="50"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1235,10 +1235,10 @@
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="62" t="s">
+      <c r="E5" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="73"/>
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1248,8 +1248,8 @@
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1259,10 +1259,10 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="62" t="s">
+      <c r="E7" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="63"/>
+      <c r="F7" s="73"/>
       <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1272,10 +1272,10 @@
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="62" t="s">
+      <c r="E8" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="63"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="50"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1285,10 +1285,10 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="62" t="s">
+      <c r="E9" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="63"/>
+      <c r="F9" s="73"/>
       <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -1298,8 +1298,8 @@
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="55"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="65"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75"/>
       <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -1354,58 +1354,58 @@
     </row>
     <row r="15" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="31"/>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="67"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
     </row>
     <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32"/>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="69"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
     </row>
     <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32"/>
-      <c r="B17" s="68" t="s">
+      <c r="B17" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="69"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
     </row>
     <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="32"/>
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
     </row>
     <row r="19" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="31"/>
@@ -1431,8 +1431,8 @@
       <c r="C22" s="12"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
     </row>
     <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="32"/>
@@ -1440,8 +1440,8 @@
       <c r="C23" s="26"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
     </row>
     <row r="24" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="32"/>
@@ -1453,10 +1453,10 @@
       </c>
       <c r="D24" s="28"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="72" t="s">
+      <c r="F24" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="73"/>
+      <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7" ht="1.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
@@ -1468,14 +1468,8 @@
       <c r="G25" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF0D" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" autoFilter="0"/>
+  <sheetProtection password="CF0D" sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" autoFilter="0"/>
   <mergeCells count="15">
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -1485,6 +1479,12 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="portrait" r:id="rId1"/>
